--- a/MigrationMatricesExample.xlsx
+++ b/MigrationMatricesExample.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/meh03c_fsu_edu/Documents/MANUSCRIPTS/WORKING/SLR-mig-proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D69EC7-D5B7-4321-B3D6-997811F0FF95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{06D69EC7-D5B7-4321-B3D6-997811F0FF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3979EB06-985B-44D2-A81B-CF9AF9C37DD6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5785CA73-16A0-4494-9136-49C02210335E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5785CA73-16A0-4494-9136-49C02210335E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -110,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -282,6 +289,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +616,7 @@
   <dimension ref="C2:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +691,10 @@
       <c r="I5" s="18">
         <v>100</v>
       </c>
+      <c r="J5">
+        <f t="array" ref="J5:J10">MMULT(C5:H10,I5:I10)</f>
+        <v>40</v>
+      </c>
       <c r="K5" s="34" cm="1">
         <f t="array" ref="K5:K7">MMULT(C5:E7,I5:I7)</f>
         <v>40</v>
@@ -684,21 +705,21 @@
       </c>
       <c r="M5" s="13">
         <f t="array" ref="M5:M10">MMULT(Q5:V10,K5:K10)</f>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="N5">
         <f t="array" ref="N5:N10">MMULT(Q5:V10,I5:I10)</f>
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="O5" s="13">
         <f t="array" ref="O5:O10">MMULT(C5:H10,N5:N10)</f>
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="P5" s="13">
         <f>(O5+M5)/2</f>
-        <v>37</v>
-      </c>
-      <c r="Q5" s="1">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="14">
         <f>1-Q8</f>
         <v>0.85</v>
       </c>
@@ -709,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -740,6 +761,9 @@
       <c r="I6" s="18">
         <v>100</v>
       </c>
+      <c r="J6">
+        <v>62</v>
+      </c>
       <c r="K6" s="34">
         <v>62</v>
       </c>
@@ -747,24 +771,24 @@
         <v>62</v>
       </c>
       <c r="M6" s="13">
-        <v>62</v>
+        <v>82.600000000000009</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="O6" s="13">
-        <v>52.7</v>
+        <v>89.9</v>
       </c>
       <c r="P6" s="13">
         <f t="shared" ref="P6:P10" si="0">(O6+M6)/2</f>
-        <v>57.35</v>
+        <v>86.25</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="18">
         <f>1-R9</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S6" s="6">
         <v>0</v>
@@ -773,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V6" s="6">
         <v>0</v>
@@ -801,6 +825,9 @@
       <c r="I7" s="23">
         <v>100</v>
       </c>
+      <c r="J7">
+        <v>70</v>
+      </c>
       <c r="K7" s="35">
         <v>70</v>
       </c>
@@ -808,17 +835,17 @@
         <v>70</v>
       </c>
       <c r="M7" s="13">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="O7" s="13">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>120.5</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
@@ -826,9 +853,9 @@
       <c r="R7" s="8">
         <v>0</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="22">
         <f>1-S10</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="T7" s="5">
         <v>0</v>
@@ -837,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.25">
@@ -861,6 +888,9 @@
       </c>
       <c r="I8" s="28">
         <v>200</v>
+      </c>
+      <c r="J8">
+        <v>80</v>
       </c>
       <c r="K8" s="33" cm="1">
         <f t="array" ref="K8:K10">MMULT(F8:H10,I8:I10)</f>
@@ -870,17 +900,17 @@
         <v>80</v>
       </c>
       <c r="M8" s="13">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N8">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="O8" s="13">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="4">
         <v>0.15</v>
@@ -891,9 +921,9 @@
       <c r="S8" s="5">
         <v>0</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="24">
         <f>1-T5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -924,6 +954,9 @@
       <c r="I9" s="28">
         <v>200</v>
       </c>
+      <c r="J9">
+        <v>134</v>
+      </c>
       <c r="K9" s="33">
         <v>134</v>
       </c>
@@ -931,23 +964,23 @@
         <v>134</v>
       </c>
       <c r="M9" s="13">
-        <v>134</v>
+        <v>113.4</v>
       </c>
       <c r="N9">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O9" s="13">
-        <v>144.05000000000001</v>
+        <v>103.85000000000001</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="0"/>
-        <v>139.02500000000001</v>
+        <v>108.625</v>
       </c>
       <c r="Q9" s="4">
         <v>0</v>
       </c>
       <c r="R9" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S9" s="10">
         <v>0</v>
@@ -955,9 +988,9 @@
       <c r="T9" s="4">
         <v>0</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="28">
         <f>1-U6</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V9" s="6">
         <v>0</v>
@@ -985,6 +1018,9 @@
       <c r="I10" s="28">
         <v>200</v>
       </c>
+      <c r="J10">
+        <v>132</v>
+      </c>
       <c r="K10" s="33">
         <v>132</v>
       </c>
@@ -992,17 +1028,17 @@
         <v>132</v>
       </c>
       <c r="M10" s="13">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="N10">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="O10" s="13">
-        <v>132</v>
+        <v>92.4</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>82.7</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
@@ -1011,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T10" s="7">
         <v>0</v>
@@ -1019,9 +1055,9 @@
       <c r="U10" s="8">
         <v>0</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="32">
         <f>1-V7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.25">
@@ -1043,19 +1079,19 @@
       </c>
       <c r="M12" s="13">
         <f>SUM(M5:M7)</f>
-        <v>166</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="N12">
         <f t="shared" ref="N12" si="1">SUM(N5:N7)</f>
-        <v>285</v>
+        <v>465</v>
       </c>
       <c r="O12">
         <f>SUM(O5:O7)</f>
-        <v>162.69999999999999</v>
+        <v>265.89999999999998</v>
       </c>
       <c r="P12" s="13">
         <f>SUM(P5:P7)</f>
-        <v>164.35</v>
+        <v>267.75</v>
       </c>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.25">
@@ -1073,19 +1109,19 @@
       </c>
       <c r="M13" s="13">
         <f>SUM(M8:M10)</f>
-        <v>352</v>
+        <v>248.4</v>
       </c>
       <c r="N13">
         <f t="shared" ref="N13:O13" si="2">SUM(N8:N10)</f>
-        <v>615</v>
+        <v>435</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>356.05</v>
+        <v>252.25000000000003</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" ref="P13" si="3">SUM(P8:P10)</f>
-        <v>354.02499999999998</v>
+        <v>250.32499999999999</v>
       </c>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.25">
@@ -1107,22 +1143,22 @@
       </c>
       <c r="O14">
         <f t="shared" ref="O14:P14" si="6">SUM(O12:O13)</f>
-        <v>518.75</v>
+        <v>518.15</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="6"/>
-        <v>518.375</v>
+        <v>518.07500000000005</v>
       </c>
     </row>
     <row r="16" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
         <v>0.2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="16">
         <v>0.2</v>
       </c>
       <c r="F17" s="2">
@@ -1134,7 +1170,7 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="18">
         <v>100</v>
       </c>
       <c r="K17" cm="1">
@@ -1147,13 +1183,13 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="4">
+      <c r="C18" s="17">
         <v>0.62</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
         <v>0</v>
       </c>
       <c r="F18" s="5">
@@ -1165,7 +1201,7 @@
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="18">
         <v>100</v>
       </c>
       <c r="K18">
@@ -1176,13 +1212,13 @@
       </c>
     </row>
     <row r="19" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19" s="20">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21">
         <v>0.35</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="22">
         <v>0.35</v>
       </c>
       <c r="F19" s="5">
@@ -1194,7 +1230,7 @@
       <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="23">
         <v>100</v>
       </c>
       <c r="K19" s="12">
@@ -1214,16 +1250,16 @@
       <c r="E20" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
         <v>0.2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="26">
         <v>0.2</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="28">
         <v>200</v>
       </c>
       <c r="K20" cm="1">
@@ -1244,16 +1280,16 @@
       <c r="E21" s="10">
         <v>0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="27">
         <v>0.67</v>
       </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="G21" s="28">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="28">
         <v>200</v>
       </c>
       <c r="K21">
@@ -1273,16 +1309,16 @@
       <c r="E22" s="8">
         <v>0</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="30">
+        <v>0</v>
+      </c>
+      <c r="G22" s="31">
         <v>0.33</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="32">
         <v>0.33</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="28">
         <v>200</v>
       </c>
       <c r="K22">
@@ -1550,4 +1586,655 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3D90BD-3A1D-4579-98B8-6CDA43B077CB}">
+  <dimension ref="B1:Z15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>100</v>
+      </c>
+      <c r="N2" s="34" cm="1">
+        <f t="array" ref="N2:N10">MMULT(B2:J10,L2:L10)</f>
+        <v>40</v>
+      </c>
+      <c r="O2" s="34" cm="1">
+        <f t="array" ref="O2:O10">MMULT(R2:Z10,_xlfn.ANCHORARRAY(N2))</f>
+        <v>40</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>100</v>
+      </c>
+      <c r="N3" s="34">
+        <v>62</v>
+      </c>
+      <c r="O3" s="34">
+        <v>55.800000000000004</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <f>1-(SUM(S5:S10))</f>
+        <v>0.9</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
+        <v>100</v>
+      </c>
+      <c r="N4" s="34">
+        <v>70</v>
+      </c>
+      <c r="O4" s="34">
+        <v>66.5</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <f>1-(SUM(T5:T10))</f>
+        <v>0.95</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="28">
+        <v>200</v>
+      </c>
+      <c r="N5" s="33">
+        <v>80</v>
+      </c>
+      <c r="O5" s="33">
+        <v>78</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="24">
+        <f>1-U2</f>
+        <v>0.9</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.67</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28">
+        <v>200</v>
+      </c>
+      <c r="N6" s="33">
+        <v>134</v>
+      </c>
+      <c r="O6" s="33">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="28">
+        <f>1-V3</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0.33</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
+        <v>200</v>
+      </c>
+      <c r="N7" s="33">
+        <v>132</v>
+      </c>
+      <c r="O7" s="33">
+        <v>135.5</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="32">
+        <f>1-W4</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="41">
+        <v>300</v>
+      </c>
+      <c r="N8" s="46">
+        <v>120</v>
+      </c>
+      <c r="O8" s="46">
+        <v>120</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="37">
+        <f>1-X5</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0.67</v>
+      </c>
+      <c r="I9" s="41">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0</v>
+      </c>
+      <c r="L9" s="41">
+        <v>300</v>
+      </c>
+      <c r="N9" s="46">
+        <v>201</v>
+      </c>
+      <c r="O9" s="46">
+        <v>203</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="41">
+        <f>1-Y6</f>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="43">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44">
+        <v>0.33</v>
+      </c>
+      <c r="J10" s="45">
+        <v>0.33</v>
+      </c>
+      <c r="L10" s="41">
+        <v>300</v>
+      </c>
+      <c r="N10" s="46">
+        <v>198</v>
+      </c>
+      <c r="O10" s="46">
+        <v>198</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="45">
+        <f>1-Z7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N12" s="34">
+        <f>SUM(N2:N4)</f>
+        <v>172</v>
+      </c>
+      <c r="O12" s="34">
+        <f>SUM(O2:O4)</f>
+        <v>162.30000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N13" s="33">
+        <f>SUM(N5:N7)</f>
+        <v>346</v>
+      </c>
+      <c r="O13" s="33">
+        <f>SUM(O5:O7)</f>
+        <v>353.7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N14" s="46">
+        <f>SUM(N8:N10)</f>
+        <v>519</v>
+      </c>
+      <c r="O14" s="46">
+        <f>SUM(O8:O10)</f>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f>SUM(_xlfn.ANCHORARRAY(N2))</f>
+        <v>1037</v>
+      </c>
+      <c r="O15">
+        <f>SUM(_xlfn.ANCHORARRAY(O2))</f>
+        <v>1037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>